--- a/Round 2/Data/Comparative Analaysis of Cities in History/China Population Data for last 20 years.xlsx
+++ b/Round 2/Data/Comparative Analaysis of Cities in History/China Population Data for last 20 years.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kwonk\Guided Project\KNIME_Project\Round 2\Data\Comparative Analaysis of Cities in History\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A148DB-ED63-4A66-AE5B-8420BDF231BC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CED449C5-066D-49B1-AD8A-E83F974FB663}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12696" xr2:uid="{A21ABF24-7863-481C-8B04-E347BA760D69}"/>
   </bookViews>
